--- a/data/department.xlsx
+++ b/data/department.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FABC1F-679B-4290-8619-91014EBD06C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D106C27-05F0-4094-89E2-6BAE9858A60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="45" windowWidth="13200" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -47,14 +47,67 @@
   </si>
   <si>
     <t>BTGĐ</t>
+  </si>
+  <si>
+    <t>Hội đồng quản trị</t>
+  </si>
+  <si>
+    <t>HĐQT</t>
+  </si>
+  <si>
+    <t>Ban kiểm soát</t>
+  </si>
+  <si>
+    <t>BKS</t>
+  </si>
+  <si>
+    <t>Phòng Kinh tế - Kế hoạch</t>
+  </si>
+  <si>
+    <t>Phòng Tài chính - Kế toán</t>
+  </si>
+  <si>
+    <t>TCKT</t>
+  </si>
+  <si>
+    <t>Phòng Kỹ thuật Cơ điện</t>
+  </si>
+  <si>
+    <t>KTCĐ</t>
+  </si>
+  <si>
+    <t>Trung tâm Tư vấn và Kiểm định an toàn đập</t>
+  </si>
+  <si>
+    <t>TTTV</t>
+  </si>
+  <si>
+    <t>Nhà máy thủy điện Khe Diên</t>
+  </si>
+  <si>
+    <t>NMKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhà máy thủy điện Krông H'năng </t>
+  </si>
+  <si>
+    <t>NMKN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,8 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,69 +419,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
